--- a/body2020.xlsx
+++ b/body2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A234A6F3-1585-4DB0-8CB2-4745166A459C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1353E7-8038-4EC7-B46F-767E5586C312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
   </bookViews>
   <sheets>
     <sheet name="ZS FIIT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>PRINCÍPY POČÍTAČOVÉHO INŽINIERSTVA</t>
   </si>
@@ -195,13 +195,59 @@
   </si>
   <si>
     <t>NE</t>
+  </si>
+  <si>
+    <t>PH z hodín</t>
+  </si>
+  <si>
+    <t>__ / 12b</t>
+  </si>
+  <si>
+    <t>5.12.</t>
+  </si>
+  <si>
+    <t>PH moodle</t>
+  </si>
+  <si>
+    <t>Skúška moodle</t>
+  </si>
+  <si>
+    <t>Aktivita - písomná</t>
+  </si>
+  <si>
+    <t>Aktivita - odpoveď</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 15b</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +272,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -633,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,22 +712,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,15 +723,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -799,6 +830,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D6DB39-8B85-4275-A50B-BF31A580B8D1}">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -1133,18 +1194,18 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="14"/>
-      <c r="L3" s="16" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1175,7 +1236,7 @@
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
@@ -1203,7 +1264,7 @@
       <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
@@ -1219,22 +1280,22 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
-      <c r="L6" s="18"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="19"/>
-      <c r="L8" s="16" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1252,22 +1313,22 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="14"/>
-      <c r="L11" s="16" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="L11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1286,8 +1347,8 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="13"/>
-      <c r="L12" s="17"/>
+      <c r="J12" s="9"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
@@ -1303,22 +1364,22 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
-      <c r="L13" s="18"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="19"/>
-      <c r="L15" s="16" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1330,15 +1391,15 @@
         <v>10</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="L16" s="17"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
@@ -1359,8 +1420,8 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="13"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="9"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
@@ -1376,22 +1437,22 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
-      <c r="L18" s="18"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="19"/>
-      <c r="L20" s="16" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="L20" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1406,14 +1467,14 @@
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="29"/>
-      <c r="L21" s="40"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="21"/>
+      <c r="L21" s="32"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
@@ -1426,18 +1487,18 @@
       <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="28" t="s">
         <v>45</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="13"/>
-      <c r="L22" s="17"/>
+      <c r="J22" s="9"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
@@ -1447,15 +1508,15 @@
         <v>20</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="L23" s="17"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
@@ -1471,22 +1532,22 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
-      <c r="L24" s="18"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="19"/>
-      <c r="L26" s="16" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
+      <c r="L26" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1504,7 +1565,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
-      <c r="L27" s="18"/>
+      <c r="L27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1524,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4006128-8C45-466D-8C6E-7B20C37E5A15}">
-  <dimension ref="B2:M30"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1541,278 +1602,305 @@
     <col min="8" max="13" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="I3" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="4">
         <v>15</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="25">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>90</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="4">
         <v>15</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="I6"/>
+      <c r="J6" s="2"/>
+      <c r="L6"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="7">
         <v>75</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+      <c r="I7" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="30">
+        <v>10</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="I10"/>
+      <c r="J10" s="2"/>
+      <c r="L10"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>90</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="20"/>
+      <c r="I11" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="23"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="31"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="38" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="34"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="23"/>
+      <c r="C14" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="30">
+        <v>10</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="I14"/>
+      <c r="J14" s="2"/>
+      <c r="L14"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="23"/>
+      <c r="C15" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="30">
+        <v>10</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="I15" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="57"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="30">
+        <v>20</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="7">
         <v>100</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="4">
-        <v>10</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="33">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="34"/>
-      <c r="C22" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="7">
-        <v>90</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="31"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="34"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="28"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="31">
+        <v>60</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I7:N7"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1832,325 +1920,325 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="45">
+      <c r="B4" s="37">
         <v>21</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="38">
         <v>22</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="38">
         <v>23</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="45">
         <v>24</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="45">
         <v>25</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="45">
         <v>26</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="48">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="49">
+      <c r="B5" s="41">
         <v>28</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="42">
         <v>29</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="43">
         <v>30</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="44">
         <v>1</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="46">
         <v>2</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="46">
         <v>3</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57">
+      <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="46">
         <v>6</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="46">
         <v>7</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <v>8</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="36">
         <v>9</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="36">
         <v>10</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="40">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47">
+      <c r="B7" s="39">
         <v>12</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="36">
         <v>13</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="36">
         <v>14</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="36">
         <v>15</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="36">
         <v>16</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="36">
         <v>17</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="40">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="47">
+      <c r="B8" s="39">
         <v>19</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="36">
         <v>20</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="36">
         <v>21</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="36">
         <v>22</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="36">
         <v>23</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="36">
         <v>24</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="43">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="49">
+      <c r="B9" s="41">
         <v>26</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="42">
         <v>27</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="42">
         <v>28</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="42">
         <v>29</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="42">
         <v>30</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="43">
         <v>31</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57">
+      <c r="B10" s="49">
         <v>2</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="46">
         <v>3</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="46">
         <v>4</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="46">
         <v>5</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="46">
         <v>6</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="46">
         <v>7</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="40">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="47">
+      <c r="B11" s="39">
         <v>9</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="36">
         <v>10</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="36">
         <v>11</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="36">
         <v>12</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="36">
         <v>13</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="36">
         <v>14</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="40">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="47">
+      <c r="B12" s="39">
         <v>16</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="36">
         <v>17</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="36">
         <v>18</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="36">
         <v>19</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="36">
         <v>20</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="36">
         <v>21</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="40">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="47">
+      <c r="B13" s="39">
         <v>23</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="42">
         <v>24</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="42">
         <v>25</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="42">
         <v>26</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="42">
         <v>27</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="42">
         <v>28</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="43">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="59">
+      <c r="B14" s="51">
         <v>30</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="44">
         <v>1</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="46">
         <v>2</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="46">
         <v>3</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="46">
         <v>4</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="46">
         <v>5</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="57">
+      <c r="B15" s="49">
         <v>7</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="36">
         <v>8</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="36">
         <v>9</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="36">
         <v>10</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="36">
         <v>11</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="36">
         <v>12</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="40">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="49">
+      <c r="B16" s="41">
         <v>14</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="42">
         <v>15</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="42">
         <v>16</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="42">
         <v>17</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="42">
         <v>18</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="42">
         <v>19</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="43">
         <v>20</v>
       </c>
     </row>

--- a/body2020.xlsx
+++ b/body2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1353E7-8038-4EC7-B46F-767E5586C312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD0553-A605-44DE-A9A5-C43114E4807B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
   </bookViews>
   <sheets>
     <sheet name="ZS FIIT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>PRINCÍPY POČÍTAČOVÉHO INŽINIERSTVA</t>
   </si>
@@ -95,12 +95,6 @@
     <t>__ / 3b</t>
   </si>
   <si>
-    <t>__ / 15b</t>
-  </si>
-  <si>
-    <t>__ / 25b</t>
-  </si>
-  <si>
     <t>__ / 20b</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>Prípadová štúdia</t>
   </si>
   <si>
-    <t>__ / 15</t>
-  </si>
-  <si>
     <t>ZÁKLADY PRÁVA EU</t>
   </si>
   <si>
@@ -155,16 +146,10 @@
     <t>15. - 23. 10.</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Individuálna prezentácia</t>
   </si>
   <si>
     <t>Skupinové prezentácie</t>
-  </si>
-  <si>
-    <t>__ + __ + __ + __ + __ + __ + __ + __ + __ + __  / 20b</t>
   </si>
   <si>
     <t>18.11.</t>
@@ -240,6 +225,164 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> / 15b</t>
+    </r>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>7.11 (13.30)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ _ / 15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 3b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 3b</t>
+    </r>
+  </si>
+  <si>
+    <t>__ / 19b</t>
+  </si>
+  <si>
+    <t>__ / 31b</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + __ + __ + __ + __ + __ + __ + __  / 20b</t>
     </r>
   </si>
 </sst>
@@ -296,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -474,7 +617,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -489,13 +632,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -504,91 +692,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -624,19 +737,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -649,37 +760,41 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -688,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,77 +904,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D6DB39-8B85-4275-A50B-BF31A580B8D1}">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1194,17 +1320,17 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1247,10 +1373,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>18</v>
@@ -1284,17 +1410,17 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1317,17 +1443,17 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
       <c r="L11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1341,7 +1467,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1368,17 +1494,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
       <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
@@ -1391,14 +1517,14 @@
         <v>10</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
+      <c r="E16" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -1413,10 +1539,10 @@
         <v>17</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1441,34 +1567,34 @@
     </row>
     <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
       <c r="L20" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4">
         <v>40</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -1478,7 +1604,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4">
         <v>20</v>
@@ -1488,13 +1614,13 @@
         <v>16</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="9"/>
@@ -1508,14 +1634,14 @@
         <v>20</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
+      <c r="E23" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1536,17 +1662,17 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
       <c r="L26" s="11" t="s">
         <v>13</v>
       </c>
@@ -1585,322 +1711,379 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4006128-8C45-466D-8C6E-7B20C37E5A15}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" customWidth="1"/>
     <col min="3" max="3" width="17.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.54296875" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="10"/>
+    <col min="10" max="10" width="3.90625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="2.54296875" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="I3" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4">
-        <v>15</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="4">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="I3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
+      <c r="R3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="30">
         <v>10</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="4" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="I4" s="32"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="48"/>
+      <c r="R4" s="54"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>90</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="20"/>
+      <c r="I5" s="53"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
+      <c r="R5" s="54"/>
+    </row>
+    <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="51"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="9"/>
+      <c r="R6" s="54"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="I7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="9"/>
+      <c r="R7" s="54"/>
+    </row>
+    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="23"/>
+      <c r="C8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="30">
+        <v>10</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="25">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="G8" s="21"/>
+      <c r="I8" s="32"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="R8" s="55"/>
+    </row>
+    <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="23"/>
+      <c r="C9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="30">
         <v>10</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7">
-        <v>90</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4">
-        <v>15</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="I6"/>
-      <c r="J6" s="2"/>
-      <c r="L6"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7">
-        <v>75</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
-    </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="28"/>
+      <c r="F9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" s="23"/>
       <c r="C10" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="30" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G10" s="21"/>
-      <c r="I10"/>
-      <c r="J10" s="2"/>
-      <c r="L10"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="32"/>
+      <c r="K10" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="61"/>
+      <c r="R10" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="31">
+        <v>60</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="22"/>
+      <c r="I11" s="53"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="47">
+        <v>10</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="25">
+        <v>44134</v>
+      </c>
+      <c r="R11" s="32"/>
+    </row>
+    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="26"/>
+      <c r="L12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="M12" s="7">
         <v>90</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="20"/>
-      <c r="I11" s="55" t="s">
+      <c r="N12" s="19"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="20"/>
+      <c r="R12" s="53"/>
+    </row>
+    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="I13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="23"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="K14" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="61"/>
+      <c r="R14" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="26"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="22"/>
+      <c r="I15" s="53"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="47">
+        <v>15</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="32"/>
+    </row>
+    <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="14"/>
+      <c r="L16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="47">
+        <v>10</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="57"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I12" s="23"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="23"/>
-      <c r="C14" s="30" t="s">
+      <c r="R16" s="32"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="I17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="47">
+        <v>15</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="30">
-        <v>10</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="I14"/>
-      <c r="J14" s="2"/>
-      <c r="L14"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="23"/>
-      <c r="C15" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="30">
-        <v>10</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="I15" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
-    </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="30">
-        <v>20</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="P17" s="48"/>
+      <c r="R17" s="32"/>
+    </row>
+    <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="7">
         <v>100</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="31">
-        <v>60</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="22"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="7">
+        <v>75</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1908,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4690F7E6-BE22-4C9C-81A0-8C2FDE290AD8}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1921,325 +2104,325 @@
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="37">
+      <c r="B4" s="66">
+        <v>30</v>
+      </c>
+      <c r="C4" s="65">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37">
+        <v>2</v>
+      </c>
+      <c r="E4" s="37">
+        <v>3</v>
+      </c>
+      <c r="F4" s="37">
+        <v>4</v>
+      </c>
+      <c r="G4" s="37">
+        <v>5</v>
+      </c>
+      <c r="H4" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="46">
+        <v>7</v>
+      </c>
+      <c r="C5" s="36">
+        <v>8</v>
+      </c>
+      <c r="D5" s="36">
+        <v>9</v>
+      </c>
+      <c r="E5" s="36">
+        <v>10</v>
+      </c>
+      <c r="F5" s="36">
+        <v>11</v>
+      </c>
+      <c r="G5" s="36">
+        <v>12</v>
+      </c>
+      <c r="H5" s="39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="38">
+        <v>14</v>
+      </c>
+      <c r="C6" s="36">
+        <v>15</v>
+      </c>
+      <c r="D6" s="36">
+        <v>16</v>
+      </c>
+      <c r="E6" s="36">
+        <v>17</v>
+      </c>
+      <c r="F6" s="36">
+        <v>18</v>
+      </c>
+      <c r="G6" s="36">
+        <v>19</v>
+      </c>
+      <c r="H6" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="38">
         <v>21</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C7" s="36">
         <v>22</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D7" s="36">
         <v>23</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E7" s="36">
         <v>24</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F7" s="41">
         <v>25</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G7" s="41">
         <v>26</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H7" s="42">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="41">
+    <row r="8" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="40">
         <v>28</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C8" s="41">
         <v>29</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D8" s="41">
         <v>30</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E8" s="42">
+        <v>31</v>
+      </c>
+      <c r="F8" s="43">
         <v>1</v>
       </c>
-      <c r="F5" s="46">
+      <c r="G8" s="44">
         <v>2</v>
       </c>
-      <c r="G5" s="46">
+      <c r="H8" s="45">
         <v>3</v>
       </c>
-      <c r="H5" s="47">
+    </row>
+    <row r="9" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="46">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="49">
+      <c r="C9" s="44">
         <v>5</v>
       </c>
-      <c r="C6" s="46">
+      <c r="D9" s="44">
         <v>6</v>
       </c>
-      <c r="D6" s="46">
+      <c r="E9" s="44">
         <v>7</v>
       </c>
-      <c r="E6" s="36">
+      <c r="F9" s="36">
         <v>8</v>
       </c>
-      <c r="F6" s="36">
+      <c r="G9" s="36">
         <v>9</v>
       </c>
-      <c r="G6" s="36">
+      <c r="H9" s="39">
         <v>10</v>
       </c>
-      <c r="H6" s="40">
+    </row>
+    <row r="10" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="38">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="39">
+      <c r="C10" s="36">
         <v>12</v>
       </c>
-      <c r="C7" s="36">
+      <c r="D10" s="36">
         <v>13</v>
       </c>
-      <c r="D7" s="36">
+      <c r="E10" s="36">
         <v>14</v>
       </c>
-      <c r="E7" s="36">
+      <c r="F10" s="36">
         <v>15</v>
       </c>
-      <c r="F7" s="36">
+      <c r="G10" s="36">
         <v>16</v>
       </c>
-      <c r="G7" s="36">
+      <c r="H10" s="39">
         <v>17</v>
       </c>
-      <c r="H7" s="40">
+    </row>
+    <row r="11" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39">
+      <c r="C11" s="36">
         <v>19</v>
       </c>
-      <c r="C8" s="36">
+      <c r="D11" s="36">
         <v>20</v>
       </c>
-      <c r="D8" s="36">
+      <c r="E11" s="36">
         <v>21</v>
       </c>
-      <c r="E8" s="36">
+      <c r="F11" s="36">
         <v>22</v>
       </c>
-      <c r="F8" s="36">
+      <c r="G11" s="36">
         <v>23</v>
       </c>
-      <c r="G8" s="36">
+      <c r="H11" s="39">
         <v>24</v>
       </c>
-      <c r="H8" s="43">
+    </row>
+    <row r="12" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="40">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="41">
+      <c r="C12" s="41">
         <v>26</v>
       </c>
-      <c r="C9" s="42">
+      <c r="D12" s="41">
         <v>27</v>
       </c>
-      <c r="D9" s="42">
+      <c r="E12" s="41">
         <v>28</v>
       </c>
-      <c r="E9" s="42">
+      <c r="F12" s="41">
         <v>29</v>
       </c>
-      <c r="F9" s="42">
+      <c r="G12" s="41">
         <v>30</v>
       </c>
-      <c r="G9" s="43">
+      <c r="H12" s="42">
         <v>31</v>
       </c>
-      <c r="H9" s="50">
+    </row>
+    <row r="13" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="49">
+      <c r="C13" s="44">
         <v>2</v>
       </c>
-      <c r="C10" s="46">
+      <c r="D13" s="44">
         <v>3</v>
       </c>
-      <c r="D10" s="46">
+      <c r="E13" s="44">
         <v>4</v>
       </c>
-      <c r="E10" s="46">
+      <c r="F13" s="44">
         <v>5</v>
       </c>
-      <c r="F10" s="46">
+      <c r="G13" s="44">
         <v>6</v>
       </c>
-      <c r="G10" s="46">
+      <c r="H13" s="45">
         <v>7</v>
       </c>
-      <c r="H10" s="40">
+    </row>
+    <row r="14" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="38">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="39">
+      <c r="C14" s="36">
         <v>9</v>
       </c>
-      <c r="C11" s="36">
+      <c r="D14" s="36">
         <v>10</v>
       </c>
-      <c r="D11" s="36">
+      <c r="E14" s="36">
         <v>11</v>
       </c>
-      <c r="E11" s="36">
+      <c r="F14" s="36">
         <v>12</v>
       </c>
-      <c r="F11" s="36">
+      <c r="G14" s="36">
         <v>13</v>
       </c>
-      <c r="G11" s="36">
+      <c r="H14" s="39">
         <v>14</v>
       </c>
-      <c r="H11" s="40">
+    </row>
+    <row r="15" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="38">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="39">
+      <c r="C15" s="36">
         <v>16</v>
       </c>
-      <c r="C12" s="36">
+      <c r="D15" s="36">
         <v>17</v>
       </c>
-      <c r="D12" s="36">
+      <c r="E15" s="36">
         <v>18</v>
       </c>
-      <c r="E12" s="36">
+      <c r="F15" s="36">
         <v>19</v>
       </c>
-      <c r="F12" s="36">
+      <c r="G15" s="36">
         <v>20</v>
       </c>
-      <c r="G12" s="36">
+      <c r="H15" s="39">
         <v>21</v>
       </c>
-      <c r="H12" s="40">
+    </row>
+    <row r="16" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="40">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39">
+      <c r="C16" s="41">
         <v>23</v>
       </c>
-      <c r="C13" s="42">
+      <c r="D16" s="41">
         <v>24</v>
       </c>
-      <c r="D13" s="42">
+      <c r="E16" s="41">
         <v>25</v>
       </c>
-      <c r="E13" s="42">
+      <c r="F16" s="41">
         <v>26</v>
       </c>
-      <c r="F13" s="42">
+      <c r="G16" s="41">
         <v>27</v>
       </c>
-      <c r="G13" s="42">
+      <c r="H16" s="42">
         <v>28</v>
-      </c>
-      <c r="H13" s="43">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="51">
-        <v>30</v>
-      </c>
-      <c r="C14" s="44">
-        <v>1</v>
-      </c>
-      <c r="D14" s="46">
-        <v>2</v>
-      </c>
-      <c r="E14" s="46">
-        <v>3</v>
-      </c>
-      <c r="F14" s="46">
-        <v>4</v>
-      </c>
-      <c r="G14" s="46">
-        <v>5</v>
-      </c>
-      <c r="H14" s="47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="49">
-        <v>7</v>
-      </c>
-      <c r="C15" s="36">
-        <v>8</v>
-      </c>
-      <c r="D15" s="36">
-        <v>9</v>
-      </c>
-      <c r="E15" s="36">
-        <v>10</v>
-      </c>
-      <c r="F15" s="36">
-        <v>11</v>
-      </c>
-      <c r="G15" s="36">
-        <v>12</v>
-      </c>
-      <c r="H15" s="40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="41">
-        <v>14</v>
-      </c>
-      <c r="C16" s="42">
-        <v>15</v>
-      </c>
-      <c r="D16" s="42">
-        <v>16</v>
-      </c>
-      <c r="E16" s="42">
-        <v>17</v>
-      </c>
-      <c r="F16" s="42">
-        <v>18</v>
-      </c>
-      <c r="G16" s="42">
-        <v>19</v>
-      </c>
-      <c r="H16" s="43">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/body2020.xlsx
+++ b/body2020.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD0553-A605-44DE-A9A5-C43114E4807B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE145C-33EE-4114-955D-7F1A1642995D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
   </bookViews>
   <sheets>
-    <sheet name="ZS FIIT" sheetId="1" r:id="rId1"/>
-    <sheet name="ZS UNIBA" sheetId="2" r:id="rId2"/>
-    <sheet name="KALENDAR" sheetId="5" r:id="rId3"/>
+    <sheet name="LS FIIT" sheetId="6" r:id="rId1"/>
+    <sheet name="ZS FIIT" sheetId="1" r:id="rId2"/>
+    <sheet name="LS UNIBA" sheetId="7" r:id="rId3"/>
+    <sheet name="ZS UNIBA" sheetId="2" r:id="rId4"/>
+    <sheet name="KALENDAR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
   <si>
     <t>PRINCÍPY POČÍTAČOVÉHO INŽINIERSTVA</t>
   </si>
@@ -385,6 +387,102 @@
       <t xml:space="preserve"> + __ + __ + __ + __ + __ + __ + __  / 20b</t>
     </r>
   </si>
+  <si>
+    <t>TELESNÁ KULTÚRA</t>
+  </si>
+  <si>
+    <t>FYZIKA</t>
+  </si>
+  <si>
+    <t>DATOVÉ ŠTRUKTÚRY A ALGORITMY</t>
+  </si>
+  <si>
+    <t>MATEMATICKÁ LOGIKA</t>
+  </si>
+  <si>
+    <t>OBJEKTOVO-ORIENTOVANÉ PROGRAMOVANIE</t>
+  </si>
+  <si>
+    <t>TEORETICKÉ ZÁKLADY INFORMATICKÝCH VIED</t>
+  </si>
+  <si>
+    <t>___ / 15</t>
+  </si>
+  <si>
+    <t>___ / 10</t>
+  </si>
+  <si>
+    <t>Malé písomky</t>
+  </si>
+  <si>
+    <t>Väčšie písomky</t>
+  </si>
+  <si>
+    <t>__ / 2</t>
+  </si>
+  <si>
+    <t>__ / 20</t>
+  </si>
+  <si>
+    <t>Písomky</t>
+  </si>
+  <si>
+    <t>ANGLICKÁ PRÁVNA TERMINILÓGIA 2</t>
+  </si>
+  <si>
+    <t>RODINNÉ PRÁVO</t>
+  </si>
+  <si>
+    <t>OBCHODNÉ PRÁVO 1</t>
+  </si>
+  <si>
+    <t>PRÁVO SOCIÁLNEHO ZABEZPEČENIA</t>
+  </si>
+  <si>
+    <t>SPRÁVNE PRÁVO PROCESNÉ</t>
+  </si>
+  <si>
+    <t>PRACOVNÉ PRÁVO 2</t>
+  </si>
+  <si>
+    <t>SPRÁVNE PRÁVO HMOTNÉ</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MÁJ</t>
+  </si>
+  <si>
+    <t>Domáce úlohy</t>
+  </si>
+  <si>
+    <t>___ / 8</t>
+  </si>
+  <si>
+    <t>___ / 12</t>
+  </si>
+  <si>
+    <t>___ / 5</t>
+  </si>
+  <si>
+    <t>Projekt</t>
+  </si>
+  <si>
+    <t>Zápočet</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>6.3.</t>
+  </si>
 </sst>
 </file>
 
@@ -439,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -757,7 +855,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -766,28 +864,15 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -803,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,6 +1039,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,29 +1070,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,11 +1395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D6DB39-8B85-4275-A50B-BF31A580B8D1}">
-  <dimension ref="B2:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482455FC-F9D7-4DE6-9043-4627F0C33D2B}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1320,76 +1418,65 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="B3" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <f>7+8+10+5+5+5</f>
-        <v>40</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C4" s="56">
+        <v>10</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="57"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C5" s="56">
+        <v>40</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1410,17 +1497,436 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="L8" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="21"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>60</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="L12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="56">
+        <v>40</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
+      <c r="L16" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="56">
+        <v>35</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="56">
+        <v>15</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="56">
+        <v>10</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="L22" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="56">
+        <v>10</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="56">
+        <v>60</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
+      <c r="L27" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="L28" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B16:J16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D6DB39-8B85-4275-A50B-BF31A580B8D1}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="2.453125" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="L3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <f>7+8+10+5+5+5</f>
+        <v>40</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1443,17 +1949,17 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
       <c r="L11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1494,17 +2000,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
       <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
@@ -1517,14 +2023,14 @@
         <v>10</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -1567,17 +2073,17 @@
     </row>
     <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="11" t="s">
         <v>13</v>
       </c>
@@ -1634,14 +2140,14 @@
         <v>20</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1662,17 +2168,17 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
       <c r="L26" s="11" t="s">
         <v>13</v>
       </c>
@@ -1709,12 +2215,361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74A98BC-D94E-43C8-B008-6E9ACF160E8A}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:R23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="10"/>
+    <col min="10" max="10" width="3.90625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="2.54296875" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3"/>
+      <c r="I3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="21"/>
+      <c r="H4"/>
+      <c r="I4" s="32"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="21"/>
+      <c r="H5"/>
+      <c r="I5" s="32"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="32"/>
+    </row>
+    <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="22"/>
+      <c r="I6" s="53"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="53"/>
+    </row>
+    <row r="7" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K7"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8"/>
+      <c r="I8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
+      <c r="R8" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="21"/>
+      <c r="H9"/>
+      <c r="I9" s="32"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="21"/>
+      <c r="R9" s="32"/>
+    </row>
+    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="22"/>
+      <c r="I10" s="53"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="53"/>
+    </row>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B12" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="I12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="21"/>
+      <c r="I13" s="32"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="53"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="21"/>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="22"/>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="I17" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="22"/>
+      <c r="I18" s="53"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="K20" s="16"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="28"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="K21" s="16"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="28"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="K22" s="16"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="28"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="K23" s="16"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4006128-8C45-466D-8C6E-7B20C37E5A15}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B2:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1738,25 +2593,25 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
       <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1813,14 +2668,14 @@
       <c r="R6" s="54"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
       <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
@@ -1883,14 +2738,14 @@
       </c>
       <c r="G10" s="21"/>
       <c r="I10" s="32"/>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
       <c r="R10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1937,14 +2792,14 @@
       <c r="R12" s="53"/>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
       <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
@@ -1963,14 +2818,14 @@
         <v>57</v>
       </c>
       <c r="I14" s="32"/>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
       <c r="R14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2019,14 +2874,14 @@
       <c r="R16" s="32"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
       <c r="I17" s="11" t="s">
         <v>13</v>
       </c>
@@ -2087,22 +2942,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4690F7E6-BE22-4C9C-81A0-8C2FDE290AD8}">
-  <dimension ref="B1:H16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H16" sqref="B4:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" style="10" customWidth="1"/>
     <col min="2" max="8" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="33" t="s">
         <v>41</v>
       </c>
@@ -2125,307 +2980,345 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="66">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="59">
+        <v>15</v>
+      </c>
+      <c r="C4" s="37">
+        <v>16</v>
+      </c>
+      <c r="D4" s="37">
+        <v>17</v>
+      </c>
+      <c r="E4" s="37">
+        <v>18</v>
+      </c>
+      <c r="F4" s="37">
+        <v>19</v>
+      </c>
+      <c r="G4" s="37">
+        <v>20</v>
+      </c>
+      <c r="H4" s="58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="69"/>
+      <c r="B5" s="40">
+        <v>22</v>
+      </c>
+      <c r="C5" s="41">
+        <v>23</v>
+      </c>
+      <c r="D5" s="41">
+        <v>24</v>
+      </c>
+      <c r="E5" s="41">
+        <v>25</v>
+      </c>
+      <c r="F5" s="41">
+        <v>26</v>
+      </c>
+      <c r="G5" s="41">
+        <v>27</v>
+      </c>
+      <c r="H5" s="42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="46">
+        <v>1</v>
+      </c>
+      <c r="C6" s="44">
+        <v>2</v>
+      </c>
+      <c r="D6" s="44">
+        <v>3</v>
+      </c>
+      <c r="E6" s="44">
+        <v>4</v>
+      </c>
+      <c r="F6" s="44">
+        <v>5</v>
+      </c>
+      <c r="G6" s="44">
+        <v>6</v>
+      </c>
+      <c r="H6" s="58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="69"/>
+      <c r="B7" s="38">
+        <v>8</v>
+      </c>
+      <c r="C7" s="36">
+        <v>9</v>
+      </c>
+      <c r="D7" s="36">
+        <v>10</v>
+      </c>
+      <c r="E7" s="36">
+        <v>11</v>
+      </c>
+      <c r="F7" s="36">
+        <v>12</v>
+      </c>
+      <c r="G7" s="36">
+        <v>13</v>
+      </c>
+      <c r="H7" s="39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69"/>
+      <c r="B8" s="38">
+        <v>15</v>
+      </c>
+      <c r="C8" s="36">
+        <v>16</v>
+      </c>
+      <c r="D8" s="36">
+        <v>17</v>
+      </c>
+      <c r="E8" s="36">
+        <v>18</v>
+      </c>
+      <c r="F8" s="36">
+        <v>19</v>
+      </c>
+      <c r="G8" s="36">
+        <v>20</v>
+      </c>
+      <c r="H8" s="39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="69"/>
+      <c r="B9" s="38">
+        <v>22</v>
+      </c>
+      <c r="C9" s="36">
+        <v>23</v>
+      </c>
+      <c r="D9" s="36">
+        <v>24</v>
+      </c>
+      <c r="E9" s="41">
+        <v>25</v>
+      </c>
+      <c r="F9" s="41">
+        <v>26</v>
+      </c>
+      <c r="G9" s="41">
+        <v>27</v>
+      </c>
+      <c r="H9" s="42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="69"/>
+      <c r="B10" s="40">
+        <v>29</v>
+      </c>
+      <c r="C10" s="41">
         <v>30</v>
       </c>
-      <c r="C4" s="65">
+      <c r="D10" s="42">
+        <v>31</v>
+      </c>
+      <c r="E10" s="43">
         <v>1</v>
       </c>
-      <c r="D4" s="37">
+      <c r="F10" s="44">
         <v>2</v>
       </c>
-      <c r="E4" s="37">
+      <c r="G10" s="44">
         <v>3</v>
       </c>
-      <c r="F4" s="37">
+      <c r="H10" s="58">
         <v>4</v>
       </c>
-      <c r="G4" s="37">
+    </row>
+    <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="46">
         <v>5</v>
       </c>
-      <c r="H4" s="64">
+      <c r="C11" s="44">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="46">
+      <c r="D11" s="44">
         <v>7</v>
       </c>
-      <c r="C5" s="36">
+      <c r="E11" s="36">
         <v>8</v>
       </c>
-      <c r="D5" s="36">
+      <c r="F11" s="36">
         <v>9</v>
       </c>
-      <c r="E5" s="36">
+      <c r="G11" s="36">
         <v>10</v>
       </c>
-      <c r="F5" s="36">
+      <c r="H11" s="39">
         <v>11</v>
       </c>
-      <c r="G5" s="36">
+    </row>
+    <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="69"/>
+      <c r="B12" s="38">
         <v>12</v>
       </c>
-      <c r="H5" s="39">
+      <c r="C12" s="36">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="38">
+      <c r="D12" s="36">
         <v>14</v>
       </c>
-      <c r="C6" s="36">
+      <c r="E12" s="36">
         <v>15</v>
       </c>
-      <c r="D6" s="36">
+      <c r="F12" s="36">
         <v>16</v>
       </c>
-      <c r="E6" s="36">
+      <c r="G12" s="36">
         <v>17</v>
       </c>
-      <c r="F6" s="36">
+      <c r="H12" s="39">
         <v>18</v>
       </c>
-      <c r="G6" s="36">
+    </row>
+    <row r="13" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="69"/>
+      <c r="B13" s="46">
         <v>19</v>
       </c>
-      <c r="H6" s="39">
+      <c r="C13" s="44">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="38">
+      <c r="D13" s="44">
         <v>21</v>
       </c>
-      <c r="C7" s="36">
+      <c r="E13" s="36">
         <v>22</v>
       </c>
-      <c r="D7" s="36">
+      <c r="F13" s="36">
         <v>23</v>
       </c>
-      <c r="E7" s="36">
+      <c r="G13" s="41">
         <v>24</v>
       </c>
-      <c r="F7" s="41">
+      <c r="H13" s="42">
         <v>25</v>
       </c>
-      <c r="G7" s="41">
+    </row>
+    <row r="14" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="69"/>
+      <c r="B14" s="40">
         <v>26</v>
       </c>
-      <c r="H7" s="42">
+      <c r="C14" s="41">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="40">
+      <c r="D14" s="41">
         <v>28</v>
       </c>
-      <c r="C8" s="41">
+      <c r="E14" s="41">
         <v>29</v>
       </c>
-      <c r="D8" s="41">
+      <c r="F14" s="42">
         <v>30</v>
       </c>
-      <c r="E8" s="42">
-        <v>31</v>
-      </c>
-      <c r="F8" s="43">
+      <c r="G14" s="43">
         <v>1</v>
       </c>
-      <c r="G8" s="44">
+      <c r="H14" s="45">
         <v>2</v>
       </c>
-      <c r="H8" s="45">
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="46">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="46">
+      <c r="C15" s="44">
         <v>4</v>
       </c>
-      <c r="C9" s="44">
+      <c r="D15" s="44">
         <v>5</v>
       </c>
-      <c r="D9" s="44">
+      <c r="E15" s="44">
         <v>6</v>
       </c>
-      <c r="E9" s="44">
+      <c r="F15" s="44">
         <v>7</v>
       </c>
-      <c r="F9" s="36">
+      <c r="G15" s="36">
         <v>8</v>
       </c>
-      <c r="G9" s="36">
+      <c r="H15" s="39">
         <v>9</v>
       </c>
-      <c r="H9" s="39">
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="69"/>
+      <c r="B16" s="40">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="38">
+      <c r="C16" s="41">
         <v>11</v>
       </c>
-      <c r="C10" s="36">
+      <c r="D16" s="41">
         <v>12</v>
       </c>
-      <c r="D10" s="36">
+      <c r="E16" s="41">
         <v>13</v>
       </c>
-      <c r="E10" s="36">
+      <c r="F16" s="41">
         <v>14</v>
       </c>
-      <c r="F10" s="36">
+      <c r="G16" s="41">
         <v>15</v>
       </c>
-      <c r="G10" s="36">
+      <c r="H16" s="42">
         <v>16</v>
       </c>
-      <c r="H10" s="39">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="38">
-        <v>18</v>
-      </c>
-      <c r="C11" s="36">
-        <v>19</v>
-      </c>
-      <c r="D11" s="36">
-        <v>20</v>
-      </c>
-      <c r="E11" s="36">
-        <v>21</v>
-      </c>
-      <c r="F11" s="36">
-        <v>22</v>
-      </c>
-      <c r="G11" s="36">
-        <v>23</v>
-      </c>
-      <c r="H11" s="39">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="40">
-        <v>25</v>
-      </c>
-      <c r="C12" s="41">
-        <v>26</v>
-      </c>
-      <c r="D12" s="41">
-        <v>27</v>
-      </c>
-      <c r="E12" s="41">
-        <v>28</v>
-      </c>
-      <c r="F12" s="41">
-        <v>29</v>
-      </c>
-      <c r="G12" s="41">
-        <v>30</v>
-      </c>
-      <c r="H12" s="42">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="46">
-        <v>1</v>
-      </c>
-      <c r="C13" s="44">
-        <v>2</v>
-      </c>
-      <c r="D13" s="44">
-        <v>3</v>
-      </c>
-      <c r="E13" s="44">
-        <v>4</v>
-      </c>
-      <c r="F13" s="44">
-        <v>5</v>
-      </c>
-      <c r="G13" s="44">
-        <v>6</v>
-      </c>
-      <c r="H13" s="45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="38">
-        <v>8</v>
-      </c>
-      <c r="C14" s="36">
-        <v>9</v>
-      </c>
-      <c r="D14" s="36">
-        <v>10</v>
-      </c>
-      <c r="E14" s="36">
-        <v>11</v>
-      </c>
-      <c r="F14" s="36">
-        <v>12</v>
-      </c>
-      <c r="G14" s="36">
-        <v>13</v>
-      </c>
-      <c r="H14" s="39">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="38">
-        <v>15</v>
-      </c>
-      <c r="C15" s="36">
-        <v>16</v>
-      </c>
-      <c r="D15" s="36">
-        <v>17</v>
-      </c>
-      <c r="E15" s="36">
-        <v>18</v>
-      </c>
-      <c r="F15" s="36">
-        <v>19</v>
-      </c>
-      <c r="G15" s="36">
-        <v>20</v>
-      </c>
-      <c r="H15" s="39">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="40">
-        <v>22</v>
-      </c>
-      <c r="C16" s="41">
-        <v>23</v>
-      </c>
-      <c r="D16" s="41">
-        <v>24</v>
-      </c>
-      <c r="E16" s="41">
-        <v>25</v>
-      </c>
-      <c r="F16" s="41">
-        <v>26</v>
-      </c>
-      <c r="G16" s="41">
-        <v>27</v>
-      </c>
-      <c r="H16" s="42">
-        <v>28</v>
-      </c>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/body2020.xlsx
+++ b/body2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE145C-33EE-4114-955D-7F1A1642995D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54994AA9-A0F4-4CFD-832C-524DF35808BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
   <si>
     <t>PRINCÍPY POČÍTAČOVÉHO INŽINIERSTVA</t>
   </si>
@@ -478,9 +478,6 @@
     <t>Zápočet</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>6.3.</t>
   </si>
 </sst>
@@ -888,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,6 +1049,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,8 +1079,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,17 +1418,17 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1497,17 +1497,17 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1552,17 +1552,17 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
       <c r="L12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1605,17 +1605,17 @@
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
       <c r="L16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1696,17 +1696,17 @@
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
       <c r="L22" s="11" t="s">
         <v>13</v>
       </c>
@@ -1761,17 +1761,17 @@
     </row>
     <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
       <c r="L27" s="11" t="s">
         <v>13</v>
       </c>
@@ -1826,17 +1826,17 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1916,17 +1916,17 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1949,17 +1949,17 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
       <c r="L11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2000,17 +2000,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
       <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2023,14 +2023,14 @@
         <v>10</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -2073,17 +2073,17 @@
     </row>
     <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
       <c r="L20" s="11" t="s">
         <v>13</v>
       </c>
@@ -2140,14 +2140,14 @@
         <v>20</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2168,17 +2168,17 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
       <c r="L26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2220,17 +2220,17 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:R23"/>
+  <dimension ref="B2:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="4.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="61" customWidth="1"/>
     <col min="4" max="4" width="7.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.54296875" customWidth="1"/>
     <col min="6" max="6" width="8.453125" style="1" bestFit="1" customWidth="1"/>
@@ -2248,27 +2248,26 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
       <c r="H3"/>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="1"/>
+      <c r="K3" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
       <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2286,93 +2285,87 @@
       <c r="I4" s="32"/>
       <c r="K4" s="23"/>
       <c r="L4" s="24" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
       <c r="P4" s="21"/>
-      <c r="Q4" s="1"/>
       <c r="R4" s="32"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="21"/>
-      <c r="H5"/>
-      <c r="I5" s="32"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="21"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="22"/>
+      <c r="I5" s="53"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="22"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="32"/>
+      <c r="R5" s="53"/>
     </row>
     <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="22"/>
-      <c r="I6" s="53"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="22"/>
+      <c r="K6"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="53"/>
-    </row>
-    <row r="7" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K7"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="I7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="64"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8"/>
-      <c r="I8" s="11" t="s">
+      <c r="R7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="63"/>
-      <c r="R8" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="21"/>
+      <c r="I8" s="32"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="53"/>
+    </row>
+    <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
         <v>93</v>
@@ -2381,17 +2374,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="21"/>
-      <c r="H9"/>
       <c r="I9" s="32"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="21"/>
-      <c r="R9" s="32"/>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="26"/>
@@ -2403,157 +2386,102 @@
       <c r="F10" s="7"/>
       <c r="G10" s="22"/>
       <c r="I10" s="53"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="22"/>
+      <c r="K10" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="64"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="53"/>
-    </row>
-    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
+      <c r="R10" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K11" s="26"/>
+      <c r="L11" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="53"/>
+    </row>
+    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12"/>
       <c r="I12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="23"/>
       <c r="C13" s="24" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="21"/>
+      <c r="H13"/>
       <c r="I13" s="32"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27" t="s">
+      <c r="K13" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="22"/>
+      <c r="I14" s="53"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="53"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="21"/>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="22"/>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="22"/>
-      <c r="I18" s="53"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="K20" s="16"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="28"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="28"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="K22" s="16"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="28"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="K23" s="16"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="71">
+        <v>0.78</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="K7:P7"/>
     <mergeCell ref="K3:P3"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K10:P10"/>
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2593,25 +2521,25 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
       <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2668,14 +2596,14 @@
       <c r="R6" s="54"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
       <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2738,14 +2666,14 @@
       </c>
       <c r="G10" s="21"/>
       <c r="I10" s="32"/>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="64"/>
       <c r="R10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2792,14 +2720,14 @@
       <c r="R12" s="53"/>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
       <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
@@ -2818,14 +2746,14 @@
         <v>57</v>
       </c>
       <c r="I14" s="32"/>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="64"/>
       <c r="R14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2874,14 +2802,14 @@
       <c r="R16" s="32"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
       <c r="I17" s="11" t="s">
         <v>13</v>
       </c>
@@ -2982,7 +2910,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="59">
@@ -3008,7 +2936,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="40">
         <v>22</v>
       </c>
@@ -3032,7 +2960,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="46">
@@ -3058,7 +2986,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="69"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="38">
         <v>8</v>
       </c>
@@ -3082,7 +3010,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="38">
         <v>15</v>
       </c>
@@ -3106,7 +3034,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="69"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="38">
         <v>22</v>
       </c>
@@ -3130,7 +3058,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="69"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="40">
         <v>29</v>
       </c>
@@ -3154,7 +3082,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="70" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="46">
@@ -3180,7 +3108,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="69"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="38">
         <v>12</v>
       </c>
@@ -3204,7 +3132,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="69"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="46">
         <v>19</v>
       </c>
@@ -3228,7 +3156,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="69"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="40">
         <v>26</v>
       </c>
@@ -3253,7 +3181,7 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="70" t="s">
         <v>87</v>
       </c>
       <c r="B15" s="46">
@@ -3280,7 +3208,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="69"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="40">
         <v>10</v>
       </c>

--- a/body2020.xlsx
+++ b/body2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54994AA9-A0F4-4CFD-832C-524DF35808BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C063FD-2C39-4E46-B067-89CA24C5A090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
   </bookViews>
   <sheets>
     <sheet name="LS FIIT" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="LS UNIBA" sheetId="7" r:id="rId3"/>
     <sheet name="ZS UNIBA" sheetId="2" r:id="rId4"/>
     <sheet name="KALENDAR" sheetId="5" r:id="rId5"/>
+    <sheet name="SKUSKY LETO" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
   <si>
     <t>PRINCÍPY POČÍTAČOVÉHO INŽINIERSTVA</t>
   </si>
@@ -480,6 +481,12 @@
   <si>
     <t>6.3.</t>
   </si>
+  <si>
+    <t>JÚN</t>
+  </si>
+  <si>
+    <t>JÚL</t>
+  </si>
 </sst>
 </file>
 
@@ -520,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,8 +540,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -881,11 +894,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,6 +1184,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,8 +1214,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,17 +1589,17 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1497,17 +1668,17 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1552,17 +1723,17 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
       <c r="L12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1605,17 +1776,17 @@
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
       <c r="L16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1696,17 +1867,17 @@
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
       <c r="L22" s="11" t="s">
         <v>13</v>
       </c>
@@ -1761,17 +1932,17 @@
     </row>
     <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
       <c r="L27" s="11" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1980,7 @@
   </sheetPr>
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1826,17 +1997,17 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1916,17 +2087,17 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1949,17 +2120,17 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
       <c r="L11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2000,17 +2171,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2023,14 +2194,14 @@
         <v>10</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -2073,17 +2244,17 @@
     </row>
     <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
       <c r="L20" s="11" t="s">
         <v>13</v>
       </c>
@@ -2140,14 +2311,14 @@
         <v>20</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2168,17 +2339,17 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
       <c r="L26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2222,7 +2393,7 @@
   </sheetPr>
   <dimension ref="B2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -2248,26 +2419,26 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
       <c r="H3"/>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="65"/>
       <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2322,25 +2493,25 @@
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="65"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="11" t="s">
         <v>13</v>
@@ -2386,14 +2557,14 @@
       <c r="F10" s="7"/>
       <c r="G10" s="22"/>
       <c r="I10" s="53"/>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="11" t="s">
         <v>13</v>
@@ -2412,14 +2583,14 @@
       <c r="R11" s="53"/>
     </row>
     <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
       <c r="H12"/>
       <c r="I12" s="11" t="s">
         <v>13</v>
@@ -2436,14 +2607,14 @@
       <c r="G13" s="21"/>
       <c r="H13"/>
       <c r="I13" s="32"/>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="65"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="11" t="s">
         <v>13</v>
@@ -2470,7 +2641,7 @@
       </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="71">
+      <c r="R14" s="62">
         <v>0.78</v>
       </c>
     </row>
@@ -2521,25 +2692,25 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="65"/>
       <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2596,14 +2767,14 @@
       <c r="R6" s="54"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2666,14 +2837,14 @@
       </c>
       <c r="G10" s="21"/>
       <c r="I10" s="32"/>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="65"/>
       <c r="R10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2720,14 +2891,14 @@
       <c r="R12" s="53"/>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
       <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
@@ -2746,14 +2917,14 @@
         <v>57</v>
       </c>
       <c r="I14" s="32"/>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="65"/>
       <c r="R14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2802,14 +2973,14 @@
       <c r="R16" s="32"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
       <c r="I17" s="11" t="s">
         <v>13</v>
       </c>
@@ -2910,7 +3081,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="59">
@@ -2936,7 +3107,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="40">
         <v>22</v>
       </c>
@@ -2960,7 +3131,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="71" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="46">
@@ -2986,7 +3157,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="38">
         <v>8</v>
       </c>
@@ -3010,7 +3181,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="38">
         <v>15</v>
       </c>
@@ -3034,7 +3205,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="38">
         <v>22</v>
       </c>
@@ -3058,7 +3229,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="40">
         <v>29</v>
       </c>
@@ -3082,7 +3253,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="71" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="46">
@@ -3108,7 +3279,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="70"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="38">
         <v>12</v>
       </c>
@@ -3132,7 +3303,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="70"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="46">
         <v>19</v>
       </c>
@@ -3156,7 +3327,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="40">
         <v>26</v>
       </c>
@@ -3181,7 +3352,7 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="71" t="s">
         <v>87</v>
       </c>
       <c r="B15" s="46">
@@ -3208,7 +3379,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="40">
         <v>10</v>
       </c>
@@ -3251,4 +3422,399 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4A735C-C27C-4ADD-8C87-F3DCAE761B1D}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" style="10" customWidth="1"/>
+    <col min="2" max="8" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="76">
+        <v>26</v>
+      </c>
+      <c r="C4" s="74">
+        <v>27</v>
+      </c>
+      <c r="D4" s="75">
+        <v>28</v>
+      </c>
+      <c r="E4" s="74">
+        <v>29</v>
+      </c>
+      <c r="F4" s="73">
+        <v>30</v>
+      </c>
+      <c r="G4" s="59">
+        <v>1</v>
+      </c>
+      <c r="H4" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="72"/>
+      <c r="B5" s="46">
+        <v>3</v>
+      </c>
+      <c r="C5" s="44">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37">
+        <v>5</v>
+      </c>
+      <c r="E5" s="44">
+        <v>6</v>
+      </c>
+      <c r="F5" s="37">
+        <v>7</v>
+      </c>
+      <c r="G5" s="36">
+        <v>8</v>
+      </c>
+      <c r="H5" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="72"/>
+      <c r="B6" s="38">
+        <v>10</v>
+      </c>
+      <c r="C6" s="36">
+        <v>11</v>
+      </c>
+      <c r="D6" s="36">
+        <v>12</v>
+      </c>
+      <c r="E6" s="36">
+        <v>13</v>
+      </c>
+      <c r="F6" s="36">
+        <v>14</v>
+      </c>
+      <c r="G6" s="36">
+        <v>15</v>
+      </c>
+      <c r="H6" s="39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="72"/>
+      <c r="B7" s="38">
+        <v>17</v>
+      </c>
+      <c r="C7" s="36">
+        <v>18</v>
+      </c>
+      <c r="D7" s="36">
+        <v>19</v>
+      </c>
+      <c r="E7" s="81">
+        <v>20</v>
+      </c>
+      <c r="F7" s="36">
+        <v>21</v>
+      </c>
+      <c r="G7" s="36">
+        <v>22</v>
+      </c>
+      <c r="H7" s="39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="72"/>
+      <c r="B8" s="38">
+        <v>24</v>
+      </c>
+      <c r="C8" s="77">
+        <v>25</v>
+      </c>
+      <c r="D8" s="82">
+        <v>26</v>
+      </c>
+      <c r="E8" s="77">
+        <v>27</v>
+      </c>
+      <c r="F8" s="41">
+        <v>28</v>
+      </c>
+      <c r="G8" s="77">
+        <v>29</v>
+      </c>
+      <c r="H8" s="42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="83">
+        <v>31</v>
+      </c>
+      <c r="C9" s="59">
+        <v>1</v>
+      </c>
+      <c r="D9" s="37">
+        <v>2</v>
+      </c>
+      <c r="E9" s="37">
+        <v>3</v>
+      </c>
+      <c r="F9" s="44">
+        <v>4</v>
+      </c>
+      <c r="G9" s="37">
+        <v>5</v>
+      </c>
+      <c r="H9" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
+      <c r="B10" s="84">
+        <v>7</v>
+      </c>
+      <c r="C10" s="36">
+        <v>8</v>
+      </c>
+      <c r="D10" s="36">
+        <v>9</v>
+      </c>
+      <c r="E10" s="36">
+        <v>10</v>
+      </c>
+      <c r="F10" s="36">
+        <v>11</v>
+      </c>
+      <c r="G10" s="36">
+        <v>12</v>
+      </c>
+      <c r="H10" s="39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
+      <c r="B11" s="38">
+        <v>14</v>
+      </c>
+      <c r="C11" s="36">
+        <v>15</v>
+      </c>
+      <c r="D11" s="36">
+        <v>16</v>
+      </c>
+      <c r="E11" s="81">
+        <v>17</v>
+      </c>
+      <c r="F11" s="36">
+        <v>18</v>
+      </c>
+      <c r="G11" s="36">
+        <v>19</v>
+      </c>
+      <c r="H11" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="72"/>
+      <c r="B12" s="38">
+        <v>21</v>
+      </c>
+      <c r="C12" s="36">
+        <v>22</v>
+      </c>
+      <c r="D12" s="36">
+        <v>23</v>
+      </c>
+      <c r="E12" s="77">
+        <v>24</v>
+      </c>
+      <c r="F12" s="41">
+        <v>25</v>
+      </c>
+      <c r="G12" s="41">
+        <v>26</v>
+      </c>
+      <c r="H12" s="42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="72"/>
+      <c r="B13" s="78">
+        <v>28</v>
+      </c>
+      <c r="C13" s="41">
+        <v>29</v>
+      </c>
+      <c r="D13" s="42">
+        <v>30</v>
+      </c>
+      <c r="E13" s="59">
+        <v>1</v>
+      </c>
+      <c r="F13" s="44">
+        <v>2</v>
+      </c>
+      <c r="G13" s="44">
+        <v>3</v>
+      </c>
+      <c r="H13" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="59">
+        <v>5</v>
+      </c>
+      <c r="C14" s="44">
+        <v>6</v>
+      </c>
+      <c r="D14" s="37">
+        <v>7</v>
+      </c>
+      <c r="E14" s="36">
+        <v>8</v>
+      </c>
+      <c r="F14" s="36">
+        <v>9</v>
+      </c>
+      <c r="G14" s="36">
+        <v>10</v>
+      </c>
+      <c r="H14" s="39">
+        <v>11</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="72"/>
+      <c r="B15" s="38">
+        <v>12</v>
+      </c>
+      <c r="C15" s="36">
+        <v>13</v>
+      </c>
+      <c r="D15" s="36">
+        <v>14</v>
+      </c>
+      <c r="E15" s="36">
+        <v>15</v>
+      </c>
+      <c r="F15" s="36">
+        <v>16</v>
+      </c>
+      <c r="G15" s="36">
+        <v>17</v>
+      </c>
+      <c r="H15" s="39">
+        <v>18</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="72"/>
+      <c r="B16" s="38">
+        <v>19</v>
+      </c>
+      <c r="C16" s="36">
+        <v>20</v>
+      </c>
+      <c r="D16" s="36">
+        <v>21</v>
+      </c>
+      <c r="E16" s="36">
+        <v>22</v>
+      </c>
+      <c r="F16" s="36">
+        <v>23</v>
+      </c>
+      <c r="G16" s="36">
+        <v>24</v>
+      </c>
+      <c r="H16" s="79">
+        <v>25</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="72"/>
+      <c r="B17" s="40">
+        <v>26</v>
+      </c>
+      <c r="C17" s="41">
+        <v>27</v>
+      </c>
+      <c r="D17" s="41">
+        <v>28</v>
+      </c>
+      <c r="E17" s="41">
+        <v>29</v>
+      </c>
+      <c r="F17" s="41">
+        <v>30</v>
+      </c>
+      <c r="G17" s="42">
+        <v>31</v>
+      </c>
+      <c r="H17" s="80">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/body2020.xlsx
+++ b/body2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C063FD-2C39-4E46-B067-89CA24C5A090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AC29D-37A1-481F-9897-741A66F5CC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{CB07C840-4757-4FA6-877C-539AAF271F19}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="LS UNIBA" sheetId="7" r:id="rId3"/>
     <sheet name="ZS UNIBA" sheetId="2" r:id="rId4"/>
     <sheet name="KALENDAR" sheetId="5" r:id="rId5"/>
-    <sheet name="SKUSKY LETO" sheetId="8" r:id="rId6"/>
+    <sheet name="KALENDAR (2)" sheetId="9" r:id="rId6"/>
+    <sheet name="SKUSKY LETO" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
   <si>
     <t>PRINCÍPY POČÍTAČOVÉHO INŽINIERSTVA</t>
   </si>
@@ -487,6 +488,18 @@
   <si>
     <t>JÚL</t>
   </si>
+  <si>
+    <t>OKT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
 </sst>
 </file>
 
@@ -547,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1013,11 +1026,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,6 +1226,42 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,40 +1292,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1589,17 +1634,17 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
@@ -1668,17 +1713,17 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1723,17 +1768,17 @@
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
       <c r="L12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1776,17 +1821,17 @@
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
       <c r="L16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1867,17 +1912,17 @@
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="77"/>
       <c r="L22" s="11" t="s">
         <v>13</v>
       </c>
@@ -1932,17 +1977,17 @@
     </row>
     <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="77"/>
       <c r="L27" s="11" t="s">
         <v>13</v>
       </c>
@@ -1997,17 +2042,17 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
       <c r="L3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2087,17 +2132,17 @@
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="L8" s="11" t="s">
         <v>13</v>
       </c>
@@ -2120,17 +2165,17 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
       <c r="L11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2171,17 +2216,17 @@
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
       <c r="L15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2194,14 +2239,14 @@
         <v>10</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="82"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -2244,17 +2289,17 @@
     </row>
     <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="77"/>
       <c r="L20" s="11" t="s">
         <v>13</v>
       </c>
@@ -2311,14 +2356,14 @@
         <v>20</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2339,17 +2384,17 @@
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="77"/>
       <c r="L26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2419,26 +2464,26 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
       <c r="H3"/>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
       <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2493,25 +2538,25 @@
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
       <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="65"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="77"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="11" t="s">
         <v>13</v>
@@ -2557,14 +2602,14 @@
       <c r="F10" s="7"/>
       <c r="G10" s="22"/>
       <c r="I10" s="53"/>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="65"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="77"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="11" t="s">
         <v>13</v>
@@ -2583,14 +2628,14 @@
       <c r="R11" s="53"/>
     </row>
     <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
       <c r="H12"/>
       <c r="I12" s="11" t="s">
         <v>13</v>
@@ -2607,14 +2652,14 @@
       <c r="G13" s="21"/>
       <c r="H13"/>
       <c r="I13" s="32"/>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="65"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="77"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="11" t="s">
         <v>13</v>
@@ -2692,25 +2737,25 @@
   <sheetData>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
       <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2767,14 +2812,14 @@
       <c r="R6" s="54"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
       <c r="I7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2837,14 +2882,14 @@
       </c>
       <c r="G10" s="21"/>
       <c r="I10" s="32"/>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="65"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="77"/>
       <c r="R10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2891,14 +2936,14 @@
       <c r="R12" s="53"/>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
       <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
@@ -2917,14 +2962,14 @@
         <v>57</v>
       </c>
       <c r="I14" s="32"/>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="65"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="77"/>
       <c r="R14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2973,14 +3018,14 @@
       <c r="R16" s="32"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
       <c r="I17" s="11" t="s">
         <v>13</v>
       </c>
@@ -3045,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4690F7E6-BE22-4C9C-81A0-8C2FDE290AD8}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H16" sqref="B4:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3081,7 +3126,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="83" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="59">
@@ -3107,7 +3152,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="40">
         <v>22</v>
       </c>
@@ -3131,7 +3176,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="83" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="46">
@@ -3157,7 +3202,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="71"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="38">
         <v>8</v>
       </c>
@@ -3181,7 +3226,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="38">
         <v>15</v>
       </c>
@@ -3205,7 +3250,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="71"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="38">
         <v>22</v>
       </c>
@@ -3229,7 +3274,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="71"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="40">
         <v>29</v>
       </c>
@@ -3253,7 +3298,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="83" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="46">
@@ -3279,7 +3324,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="38">
         <v>12</v>
       </c>
@@ -3303,7 +3348,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="71"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="46">
         <v>19</v>
       </c>
@@ -3327,7 +3372,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="40">
         <v>26</v>
       </c>
@@ -3352,7 +3397,7 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="83" t="s">
         <v>87</v>
       </c>
       <c r="B15" s="46">
@@ -3379,7 +3424,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="40">
         <v>10</v>
       </c>
@@ -3425,11 +3470,390 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F5E37-E916-4C8A-A4EE-276153DA562F}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" style="10" customWidth="1"/>
+    <col min="2" max="8" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="59">
+        <v>20</v>
+      </c>
+      <c r="C4" s="37">
+        <v>21</v>
+      </c>
+      <c r="D4" s="37">
+        <v>22</v>
+      </c>
+      <c r="E4" s="37">
+        <v>23</v>
+      </c>
+      <c r="F4" s="65">
+        <v>24</v>
+      </c>
+      <c r="G4" s="65">
+        <v>25</v>
+      </c>
+      <c r="H4" s="85">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="84"/>
+      <c r="B5" s="40">
+        <v>27</v>
+      </c>
+      <c r="C5" s="41">
+        <v>28</v>
+      </c>
+      <c r="D5" s="41">
+        <v>29</v>
+      </c>
+      <c r="E5" s="42">
+        <v>30</v>
+      </c>
+      <c r="F5" s="59">
+        <v>1</v>
+      </c>
+      <c r="G5" s="37">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="46">
+        <v>4</v>
+      </c>
+      <c r="C6" s="44">
+        <v>5</v>
+      </c>
+      <c r="D6" s="44">
+        <v>6</v>
+      </c>
+      <c r="E6" s="44">
+        <v>7</v>
+      </c>
+      <c r="F6" s="36">
+        <v>8</v>
+      </c>
+      <c r="G6" s="36">
+        <v>9</v>
+      </c>
+      <c r="H6" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="84"/>
+      <c r="B7" s="38">
+        <v>11</v>
+      </c>
+      <c r="C7" s="36">
+        <v>12</v>
+      </c>
+      <c r="D7" s="36">
+        <v>13</v>
+      </c>
+      <c r="E7" s="36">
+        <v>14</v>
+      </c>
+      <c r="F7" s="36">
+        <v>15</v>
+      </c>
+      <c r="G7" s="36">
+        <v>16</v>
+      </c>
+      <c r="H7" s="39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="84"/>
+      <c r="B8" s="38">
+        <v>18</v>
+      </c>
+      <c r="C8" s="36">
+        <v>19</v>
+      </c>
+      <c r="D8" s="36">
+        <v>20</v>
+      </c>
+      <c r="E8" s="36">
+        <v>21</v>
+      </c>
+      <c r="F8" s="36">
+        <v>22</v>
+      </c>
+      <c r="G8" s="36">
+        <v>23</v>
+      </c>
+      <c r="H8" s="39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="84"/>
+      <c r="B9" s="40">
+        <v>25</v>
+      </c>
+      <c r="C9" s="41">
+        <v>26</v>
+      </c>
+      <c r="D9" s="41">
+        <v>27</v>
+      </c>
+      <c r="E9" s="41">
+        <v>28</v>
+      </c>
+      <c r="F9" s="41">
+        <v>29</v>
+      </c>
+      <c r="G9" s="41">
+        <v>30</v>
+      </c>
+      <c r="H9" s="42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="84"/>
+      <c r="B10" s="46">
+        <v>1</v>
+      </c>
+      <c r="C10" s="44">
+        <v>2</v>
+      </c>
+      <c r="D10" s="44">
+        <v>3</v>
+      </c>
+      <c r="E10" s="44">
+        <v>4</v>
+      </c>
+      <c r="F10" s="44">
+        <v>5</v>
+      </c>
+      <c r="G10" s="44">
+        <v>6</v>
+      </c>
+      <c r="H10" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="38">
+        <v>8</v>
+      </c>
+      <c r="C11" s="36">
+        <v>9</v>
+      </c>
+      <c r="D11" s="36">
+        <v>10</v>
+      </c>
+      <c r="E11" s="36">
+        <v>11</v>
+      </c>
+      <c r="F11" s="36">
+        <v>12</v>
+      </c>
+      <c r="G11" s="36">
+        <v>13</v>
+      </c>
+      <c r="H11" s="39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="84"/>
+      <c r="B12" s="38">
+        <v>15</v>
+      </c>
+      <c r="C12" s="36">
+        <v>16</v>
+      </c>
+      <c r="D12" s="36">
+        <v>17</v>
+      </c>
+      <c r="E12" s="36">
+        <v>18</v>
+      </c>
+      <c r="F12" s="36">
+        <v>19</v>
+      </c>
+      <c r="G12" s="36">
+        <v>20</v>
+      </c>
+      <c r="H12" s="39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="84"/>
+      <c r="B13" s="38">
+        <v>22</v>
+      </c>
+      <c r="C13" s="36">
+        <v>23</v>
+      </c>
+      <c r="D13" s="41">
+        <v>24</v>
+      </c>
+      <c r="E13" s="41">
+        <v>25</v>
+      </c>
+      <c r="F13" s="41">
+        <v>26</v>
+      </c>
+      <c r="G13" s="41">
+        <v>27</v>
+      </c>
+      <c r="H13" s="42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="84"/>
+      <c r="B14" s="40">
+        <v>29</v>
+      </c>
+      <c r="C14" s="86">
+        <v>30</v>
+      </c>
+      <c r="D14" s="46">
+        <v>1</v>
+      </c>
+      <c r="E14" s="44">
+        <v>2</v>
+      </c>
+      <c r="F14" s="44">
+        <v>3</v>
+      </c>
+      <c r="G14" s="44">
+        <v>4</v>
+      </c>
+      <c r="H14" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="46">
+        <v>6</v>
+      </c>
+      <c r="C15" s="44">
+        <v>7</v>
+      </c>
+      <c r="D15" s="36">
+        <v>8</v>
+      </c>
+      <c r="E15" s="36">
+        <v>9</v>
+      </c>
+      <c r="F15" s="36">
+        <v>10</v>
+      </c>
+      <c r="G15" s="36">
+        <v>11</v>
+      </c>
+      <c r="H15" s="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="84"/>
+      <c r="B16" s="40">
+        <v>13</v>
+      </c>
+      <c r="C16" s="41">
+        <v>14</v>
+      </c>
+      <c r="D16" s="41">
+        <v>15</v>
+      </c>
+      <c r="E16" s="41">
+        <v>16</v>
+      </c>
+      <c r="F16" s="41">
+        <v>17</v>
+      </c>
+      <c r="G16" s="41">
+        <v>18</v>
+      </c>
+      <c r="H16" s="42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4A735C-C27C-4ADD-8C87-F3DCAE761B1D}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3464,22 +3888,22 @@
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="66">
         <v>26</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="64">
         <v>27</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="65">
         <v>28</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="64">
         <v>29</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="63">
         <v>30</v>
       </c>
       <c r="G4" s="59">
@@ -3490,7 +3914,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -3514,7 +3938,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="38">
         <v>10</v>
       </c>
@@ -3538,7 +3962,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="38">
         <v>17</v>
       </c>
@@ -3548,7 +3972,7 @@
       <c r="D7" s="36">
         <v>19</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="71">
         <v>20</v>
       </c>
       <c r="F7" s="36">
@@ -3562,23 +3986,23 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="72"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="38">
         <v>24</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="67">
         <v>25</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="72">
         <v>26</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="67">
         <v>27</v>
       </c>
       <c r="F8" s="41">
         <v>28</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="67">
         <v>29</v>
       </c>
       <c r="H8" s="42">
@@ -3586,10 +4010,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="73">
         <v>31</v>
       </c>
       <c r="C9" s="59">
@@ -3612,8 +4036,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
-      <c r="B10" s="84">
+      <c r="A10" s="84"/>
+      <c r="B10" s="74">
         <v>7</v>
       </c>
       <c r="C10" s="36">
@@ -3636,7 +4060,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="38">
         <v>14</v>
       </c>
@@ -3646,7 +4070,7 @@
       <c r="D11" s="36">
         <v>16</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="71">
         <v>17</v>
       </c>
       <c r="F11" s="36">
@@ -3660,7 +4084,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="72"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="38">
         <v>21</v>
       </c>
@@ -3670,7 +4094,7 @@
       <c r="D12" s="36">
         <v>23</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="67">
         <v>24</v>
       </c>
       <c r="F12" s="41">
@@ -3684,8 +4108,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="78">
+      <c r="A13" s="84"/>
+      <c r="B13" s="68">
         <v>28</v>
       </c>
       <c r="C13" s="41">
@@ -3708,7 +4132,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="84" t="s">
         <v>96</v>
       </c>
       <c r="B14" s="59">
@@ -3735,7 +4159,7 @@
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="38">
         <v>12</v>
       </c>
@@ -3760,7 +4184,7 @@
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="72"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="38">
         <v>19</v>
       </c>
@@ -3779,13 +4203,13 @@
       <c r="G16" s="36">
         <v>24</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="69">
         <v>25</v>
       </c>
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="40">
         <v>26</v>
       </c>
@@ -3804,7 +4228,7 @@
       <c r="G17" s="42">
         <v>31</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="70">
         <v>1</v>
       </c>
     </row>
